--- a/normal.xlsx
+++ b/normal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="279">
   <si>
     <t>befor</t>
   </si>
@@ -835,6 +835,27 @@
   </si>
   <si>
     <t>jsngan</t>
+  </si>
+  <si>
+    <t>sgt</t>
+  </si>
+  <si>
+    <t>skrng</t>
+  </si>
+  <si>
+    <t>sekarang</t>
+  </si>
+  <si>
+    <t>mahall</t>
+  </si>
+  <si>
+    <t>mahal</t>
+  </si>
+  <si>
+    <t>keren</t>
+  </si>
+  <si>
+    <t>kerenn</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1195,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,6 +2496,38 @@
         <v>161</v>
       </c>
     </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>272</v>
+      </c>
+      <c r="B160" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>273</v>
+      </c>
+      <c r="B161" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>275</v>
+      </c>
+      <c r="B162" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>278</v>
+      </c>
+      <c r="B163" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/normal.xlsx
+++ b/normal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rThv\Documents\coding\streamlit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="281">
   <si>
     <t>befor</t>
   </si>
@@ -856,12 +861,18 @@
   </si>
   <si>
     <t>kerenn</t>
+  </si>
+  <si>
+    <t>baguss</t>
+  </si>
+  <si>
+    <t>buriq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1208,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,6 +2539,22 @@
         <v>277</v>
       </c>
     </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>279</v>
+      </c>
+      <c r="B164" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>280</v>
+      </c>
+      <c r="B165" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
